--- a/config_1.19/banner_style_ui.xlsx
+++ b/config_1.19/banner_style_ui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1139,7 +1139,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,6 +1274,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1631,7 +1634,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J96" sqref="J96"/>
+      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4385,11 +4388,11 @@
       <c r="J90" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="K90" s="41">
-        <v>1610409600</v>
-      </c>
-      <c r="L90" s="41">
-        <v>1610985599</v>
+      <c r="K90" s="45">
+        <v>1610380800</v>
+      </c>
+      <c r="L90" s="45">
+        <v>1611590399</v>
       </c>
     </row>
   </sheetData>
@@ -4400,22 +4403,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4432,13 +4425,31 @@
 </comments>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="5" master=""/>
   <rangeList sheetStid="6" master=""/>
@@ -4446,46 +4457,38 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_1.19/banner_style_ui.xlsx
+++ b/config_1.19/banner_style_ui.xlsx
@@ -939,7 +939,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>欢乐嘉年华</t>
+    <t>多页活动弹出</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1040,7 +1040,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,13 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,7 +1133,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1224,19 +1218,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1260,22 +1245,22 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1630,11 +1615,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
+      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1648,8 +1633,8 @@
     <col min="8" max="8" width="32.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.125" customWidth="1"/>
     <col min="10" max="10" width="25.25" customWidth="1"/>
-    <col min="11" max="11" width="24.75" style="34" customWidth="1"/>
-    <col min="12" max="12" width="18.625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="24.75" style="31" customWidth="1"/>
+    <col min="12" max="12" width="18.625" style="31" customWidth="1"/>
     <col min="13" max="13" width="14.125" customWidth="1"/>
     <col min="14" max="14" width="19.25" customWidth="1"/>
   </cols>
@@ -1685,10 +1670,10 @@
       <c r="J1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="30" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
@@ -1717,10 +1702,10 @@
       <c r="J2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L2" s="34">
+      <c r="K2" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="31">
         <v>-1</v>
       </c>
       <c r="M2" t="s">
@@ -1746,10 +1731,10 @@
       <c r="J3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="34">
+      <c r="K3" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="31">
         <v>-1</v>
       </c>
       <c r="M3" t="s">
@@ -1775,10 +1760,10 @@
       <c r="J4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L4" s="34">
+      <c r="K4" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="31">
         <v>-1</v>
       </c>
       <c r="M4" t="s">
@@ -1804,10 +1789,10 @@
       <c r="J5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L5" s="34">
+      <c r="K5" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="31">
         <v>-1</v>
       </c>
       <c r="M5" t="s">
@@ -1833,10 +1818,10 @@
       <c r="J6" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="34">
+      <c r="K6" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="31">
         <v>-1</v>
       </c>
       <c r="M6" t="s">
@@ -1859,10 +1844,10 @@
       <c r="J7" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="34">
+      <c r="K7" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="31">
         <v>-1</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -1885,10 +1870,10 @@
       <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="34">
+      <c r="K8" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="31">
         <v>-1</v>
       </c>
       <c r="N8">
@@ -1911,10 +1896,10 @@
       <c r="J9" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L9" s="34">
+      <c r="K9" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -1937,10 +1922,10 @@
       <c r="J10" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L10" s="34">
+      <c r="K10" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="31">
         <v>-1</v>
       </c>
       <c r="M10" s="8"/>
@@ -1964,10 +1949,10 @@
       <c r="J11" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="34">
+      <c r="K11" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="31">
         <v>-1</v>
       </c>
       <c r="M11" s="8"/>
@@ -1991,10 +1976,10 @@
       <c r="J12" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L12" s="34">
+      <c r="K12" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="31">
         <v>-1</v>
       </c>
       <c r="M12" s="8"/>
@@ -2024,10 +2009,10 @@
       <c r="J13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="30">
+      <c r="K13" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="29">
         <v>-1</v>
       </c>
       <c r="M13" s="9"/>
@@ -2054,10 +2039,10 @@
       <c r="J14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L14" s="34">
+      <c r="K14" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2083,10 +2068,10 @@
       <c r="J15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L15" s="34">
+      <c r="K15" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2112,10 +2097,10 @@
       <c r="J16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L16" s="34">
+      <c r="K16" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2141,10 +2126,10 @@
       <c r="J17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L17" s="34">
+      <c r="K17" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2173,10 +2158,10 @@
       <c r="J18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="35">
-        <v>-1</v>
-      </c>
-      <c r="L18" s="35">
+      <c r="K18" s="32">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="32">
         <v>-1</v>
       </c>
     </row>
@@ -2199,10 +2184,10 @@
       <c r="J19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L19" s="34">
+      <c r="K19" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2228,10 +2213,10 @@
       <c r="J20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L20" s="34">
+      <c r="K20" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2255,10 +2240,10 @@
       <c r="J21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L21" s="30">
+      <c r="K21" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="29">
         <v>-1</v>
       </c>
     </row>
@@ -2282,10 +2267,10 @@
       <c r="J22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L22" s="34">
+      <c r="K22" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2312,10 +2297,10 @@
       <c r="J23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L23" s="34">
+      <c r="K23" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L23" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2342,10 +2327,10 @@
       <c r="J24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="31">
         <v>1572305400</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="33">
         <v>1573487999</v>
       </c>
     </row>
@@ -2373,10 +2358,10 @@
       <c r="J25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L25" s="34">
+      <c r="K25" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2404,10 +2389,10 @@
       <c r="J26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L26" s="34">
+      <c r="K26" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L26" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2436,10 +2421,10 @@
       <c r="J27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="35">
-        <v>-1</v>
-      </c>
-      <c r="L27" s="35">
+      <c r="K27" s="32">
+        <v>-1</v>
+      </c>
+      <c r="L27" s="32">
         <v>-1</v>
       </c>
     </row>
@@ -2465,10 +2450,10 @@
       <c r="J28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="34">
+      <c r="K28" s="31">
         <v>1571095800</v>
       </c>
-      <c r="L28" s="34">
+      <c r="L28" s="31">
         <v>1571673599</v>
       </c>
     </row>
@@ -2496,10 +2481,10 @@
       <c r="J29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L29" s="34">
+      <c r="K29" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2523,10 +2508,10 @@
       <c r="J30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="29">
         <v>1571700600</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="29">
         <v>1572278399</v>
       </c>
     </row>
@@ -2553,10 +2538,10 @@
       <c r="J31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="35">
-        <v>-1</v>
-      </c>
-      <c r="L31" s="35">
+      <c r="K31" s="32">
+        <v>-1</v>
+      </c>
+      <c r="L31" s="32">
         <v>-1</v>
       </c>
     </row>
@@ -2581,10 +2566,10 @@
       <c r="J32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="33">
         <v>1574119800</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="33">
         <v>1574697599</v>
       </c>
     </row>
@@ -2612,10 +2597,10 @@
       <c r="J33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L33" s="34">
+      <c r="K33" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L33" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2643,10 +2628,10 @@
       <c r="J34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="29">
         <v>1574724600</v>
       </c>
-      <c r="L34" s="34">
+      <c r="L34" s="31">
         <v>1575302399</v>
       </c>
     </row>
@@ -2674,10 +2659,10 @@
       <c r="J35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="29">
         <v>1575329400</v>
       </c>
-      <c r="L35" s="34">
+      <c r="L35" s="31">
         <v>1575907199</v>
       </c>
     </row>
@@ -2705,10 +2690,10 @@
       <c r="J36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L36" s="34">
+      <c r="K36" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2738,10 +2723,10 @@
       <c r="J37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="35">
-        <v>-1</v>
-      </c>
-      <c r="L37" s="35">
+      <c r="K37" s="32">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="32">
         <v>-1</v>
       </c>
     </row>
@@ -2769,10 +2754,10 @@
       <c r="J38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="29">
         <v>1576539000</v>
       </c>
-      <c r="L38" s="34">
+      <c r="L38" s="31">
         <v>1577289599</v>
       </c>
     </row>
@@ -2799,10 +2784,10 @@
       <c r="J39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="30">
-        <v>-1</v>
-      </c>
-      <c r="L39" s="34">
+      <c r="K39" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L39" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -2830,10 +2815,10 @@
       <c r="J40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="29">
         <v>1577835000</v>
       </c>
-      <c r="L40" s="34">
+      <c r="L40" s="31">
         <v>1578326399</v>
       </c>
     </row>
@@ -2861,10 +2846,10 @@
       <c r="J41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="29">
         <v>1578353400</v>
       </c>
-      <c r="L41" s="34">
+      <c r="L41" s="31">
         <v>1578931199</v>
       </c>
     </row>
@@ -2892,10 +2877,10 @@
       <c r="J42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K42" s="30">
+      <c r="K42" s="29">
         <v>1578958200</v>
       </c>
-      <c r="L42" s="34">
+      <c r="L42" s="31">
         <v>1581350399</v>
       </c>
     </row>
@@ -2922,10 +2907,10 @@
       <c r="J43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="34">
         <v>1585611000</v>
       </c>
-      <c r="L43" s="37">
+      <c r="L43" s="34">
         <v>1586188799</v>
       </c>
     </row>
@@ -2955,10 +2940,10 @@
       <c r="J44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="35">
-        <v>-1</v>
-      </c>
-      <c r="L44" s="35">
+      <c r="K44" s="32">
+        <v>-1</v>
+      </c>
+      <c r="L44" s="32">
         <v>-1</v>
       </c>
     </row>
@@ -2986,10 +2971,10 @@
       <c r="J45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="30">
+      <c r="K45" s="29">
         <v>1581982200</v>
       </c>
-      <c r="L45" s="34">
+      <c r="L45" s="31">
         <v>1582559999</v>
       </c>
     </row>
@@ -3017,10 +3002,10 @@
       <c r="J46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="30">
+      <c r="K46" s="29">
         <v>1582587000</v>
       </c>
-      <c r="L46" s="34">
+      <c r="L46" s="31">
         <v>1583164799</v>
       </c>
     </row>
@@ -3048,10 +3033,10 @@
       <c r="J47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="30">
+      <c r="K47" s="29">
         <v>1583191800</v>
       </c>
-      <c r="L47" s="34">
+      <c r="L47" s="31">
         <v>1583769599</v>
       </c>
     </row>
@@ -3079,10 +3064,10 @@
       <c r="J48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K48" s="30">
+      <c r="K48" s="29">
         <v>1583796600</v>
       </c>
-      <c r="L48" s="34">
+      <c r="L48" s="31">
         <v>1584374399</v>
       </c>
     </row>
@@ -3110,10 +3095,10 @@
       <c r="J49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="30">
+      <c r="K49" s="29">
         <v>1583796600</v>
       </c>
-      <c r="L49" s="34">
+      <c r="L49" s="31">
         <v>1584374399</v>
       </c>
     </row>
@@ -3143,10 +3128,10 @@
       <c r="J50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K50" s="30">
+      <c r="K50" s="29">
         <v>1584401400</v>
       </c>
-      <c r="L50" s="30">
+      <c r="L50" s="29">
         <v>1584979199</v>
       </c>
     </row>
@@ -3172,10 +3157,10 @@
       <c r="J51" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K51" s="34">
+      <c r="K51" s="31">
         <v>1587425400</v>
       </c>
-      <c r="L51" s="34">
+      <c r="L51" s="31">
         <v>1588003199</v>
       </c>
     </row>
@@ -3201,10 +3186,10 @@
       <c r="J52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="34">
         <v>1585006200</v>
       </c>
-      <c r="L52" s="37">
+      <c r="L52" s="34">
         <v>1585583999</v>
       </c>
     </row>
@@ -3230,10 +3215,10 @@
       <c r="J53" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K53" s="38">
+      <c r="K53" s="35">
         <v>1585006200</v>
       </c>
-      <c r="L53" s="42">
+      <c r="L53" s="37">
         <v>-1</v>
       </c>
     </row>
@@ -3260,10 +3245,10 @@
       <c r="J54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K54" s="37">
-        <v>-1</v>
-      </c>
-      <c r="L54" s="37">
+      <c r="K54" s="34">
+        <v>-1</v>
+      </c>
+      <c r="L54" s="34">
         <v>-1</v>
       </c>
     </row>
@@ -3289,10 +3274,10 @@
       <c r="J55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K55" s="37">
+      <c r="K55" s="34">
         <v>1585611000</v>
       </c>
-      <c r="L55" s="37">
+      <c r="L55" s="34">
         <v>1586188799</v>
       </c>
     </row>
@@ -3321,10 +3306,10 @@
       <c r="J56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K56" s="37">
+      <c r="K56" s="34">
         <v>1586215800</v>
       </c>
-      <c r="L56" s="43">
+      <c r="L56" s="38">
         <v>1586793599</v>
       </c>
     </row>
@@ -3353,10 +3338,10 @@
       <c r="J57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K57" s="37">
+      <c r="K57" s="34">
         <v>1586215800</v>
       </c>
-      <c r="L57" s="43">
+      <c r="L57" s="38">
         <v>1586793599</v>
       </c>
     </row>
@@ -3385,10 +3370,10 @@
       <c r="J58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K58" s="34">
+      <c r="K58" s="31">
         <v>1586820600</v>
       </c>
-      <c r="L58" s="34">
+      <c r="L58" s="31">
         <v>1587398399</v>
       </c>
     </row>
@@ -3417,10 +3402,10 @@
       <c r="J59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K59" s="34">
+      <c r="K59" s="31">
         <v>1589844600</v>
       </c>
-      <c r="L59" s="34">
+      <c r="L59" s="31">
         <v>1590422399</v>
       </c>
     </row>
@@ -3449,10 +3434,10 @@
       <c r="J60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K60" s="34">
+      <c r="K60" s="31">
         <v>1591054200</v>
       </c>
-      <c r="L60" s="34">
+      <c r="L60" s="31">
         <v>1591631999</v>
       </c>
     </row>
@@ -3478,10 +3463,10 @@
       <c r="J61" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="K61" s="29">
-        <v>-1</v>
-      </c>
-      <c r="L61" s="29">
+      <c r="K61" s="28">
+        <v>-1</v>
+      </c>
+      <c r="L61" s="28">
         <v>-1</v>
       </c>
     </row>
@@ -3508,10 +3493,10 @@
       <c r="J62" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K62" s="39">
-        <v>-1</v>
-      </c>
-      <c r="L62" s="39">
+      <c r="K62" s="36">
+        <v>-1</v>
+      </c>
+      <c r="L62" s="36">
         <v>-1</v>
       </c>
     </row>
@@ -3541,10 +3526,10 @@
       <c r="J63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K63" s="30">
+      <c r="K63" s="29">
         <v>1588030200</v>
       </c>
-      <c r="L63" s="34">
+      <c r="L63" s="31">
         <v>1588607999</v>
       </c>
     </row>
@@ -3573,10 +3558,10 @@
       <c r="J64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K64" s="30">
+      <c r="K64" s="29">
         <v>1588608000</v>
       </c>
-      <c r="L64" s="34">
+      <c r="L64" s="31">
         <v>1589212799</v>
       </c>
     </row>
@@ -3605,10 +3590,10 @@
       <c r="J65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K65" s="34">
+      <c r="K65" s="31">
         <v>1589239800</v>
       </c>
-      <c r="L65" s="34">
+      <c r="L65" s="31">
         <v>1589817599</v>
       </c>
     </row>
@@ -3637,10 +3622,10 @@
       <c r="J66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K66" s="34">
+      <c r="K66" s="31">
         <v>1589844600</v>
       </c>
-      <c r="L66" s="34">
+      <c r="L66" s="31">
         <v>1590422399</v>
       </c>
     </row>
@@ -3669,10 +3654,10 @@
       <c r="J67" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="K67" s="34">
+      <c r="K67" s="31">
         <v>1590449400</v>
       </c>
-      <c r="L67" s="34">
+      <c r="L67" s="31">
         <v>1591027199</v>
       </c>
     </row>
@@ -3701,10 +3686,10 @@
       <c r="J68" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K68" s="34">
+      <c r="K68" s="31">
         <v>1591054200</v>
       </c>
-      <c r="L68" s="34">
+      <c r="L68" s="31">
         <v>1591631999</v>
       </c>
     </row>
@@ -3730,10 +3715,10 @@
       <c r="J69" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K69" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L69" s="34">
+      <c r="K69" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L69" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -3763,10 +3748,10 @@
       <c r="J70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K70" s="30">
+      <c r="K70" s="29">
         <v>1597102200</v>
       </c>
-      <c r="L70" s="34">
+      <c r="L70" s="31">
         <v>1597679999</v>
       </c>
     </row>
@@ -3795,10 +3780,10 @@
       <c r="J71" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K71" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L71" s="34">
+      <c r="K71" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L71" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -3824,10 +3809,10 @@
       <c r="J72" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="K72" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L72" s="34">
+      <c r="K72" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L72" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -3856,10 +3841,10 @@
       <c r="J73" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="K73" s="34">
+      <c r="K73" s="31">
         <v>1597707000</v>
       </c>
-      <c r="L73" s="34">
+      <c r="L73" s="31">
         <v>1598284799</v>
       </c>
     </row>
@@ -3888,10 +3873,10 @@
       <c r="J74" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K74" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L74" s="34">
+      <c r="K74" s="31">
+        <v>-1</v>
+      </c>
+      <c r="L74" s="31">
         <v>-1</v>
       </c>
     </row>
@@ -3917,10 +3902,10 @@
       <c r="J75" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K75" s="30">
+      <c r="K75" s="29">
         <v>1606780800</v>
       </c>
-      <c r="L75" s="30">
+      <c r="L75" s="29">
         <v>1607356799</v>
       </c>
     </row>
@@ -3949,10 +3934,10 @@
       <c r="J76" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K76" s="30">
+      <c r="K76" s="29">
         <v>1602547200</v>
       </c>
-      <c r="L76" s="30">
+      <c r="L76" s="29">
         <v>1603123199</v>
       </c>
     </row>
@@ -3981,10 +3966,10 @@
       <c r="J77" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K77" s="30">
+      <c r="K77" s="29">
         <v>1599521400</v>
       </c>
-      <c r="L77" s="30">
+      <c r="L77" s="29">
         <v>1600099199</v>
       </c>
     </row>
@@ -4013,10 +3998,10 @@
       <c r="J78" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K78" s="30">
+      <c r="K78" s="29">
         <v>1599521400</v>
       </c>
-      <c r="L78" s="30">
+      <c r="L78" s="29">
         <v>1600099199</v>
       </c>
     </row>
@@ -4045,10 +4030,10 @@
       <c r="J79" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K79" s="30">
+      <c r="K79" s="29">
         <v>1605571200</v>
       </c>
-      <c r="L79" s="30">
+      <c r="L79" s="29">
         <v>1606147199</v>
       </c>
     </row>
@@ -4077,10 +4062,10 @@
       <c r="J80" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K80" s="30">
+      <c r="K80" s="29">
         <v>1601337600</v>
       </c>
-      <c r="L80" s="30">
+      <c r="L80" s="29">
         <v>1601913599</v>
       </c>
     </row>
@@ -4109,10 +4094,10 @@
       <c r="J81" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K81" s="30">
+      <c r="K81" s="29">
         <v>1603152000</v>
       </c>
-      <c r="L81" s="30">
+      <c r="L81" s="29">
         <v>1603727999</v>
       </c>
     </row>
@@ -4141,10 +4126,10 @@
       <c r="J82" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K82" s="30">
+      <c r="K82" s="29">
         <v>1603756800</v>
       </c>
-      <c r="L82" s="30">
+      <c r="L82" s="29">
         <v>1604332799</v>
       </c>
     </row>
@@ -4170,10 +4155,10 @@
       <c r="J83" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K83" s="30">
+      <c r="K83" s="29">
         <v>1604359800</v>
       </c>
-      <c r="L83" s="30">
+      <c r="L83" s="29">
         <v>1604937599</v>
       </c>
     </row>
@@ -4202,10 +4187,10 @@
       <c r="J84" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K84" s="30">
+      <c r="K84" s="29">
         <v>1604966400</v>
       </c>
-      <c r="L84" s="30">
+      <c r="L84" s="29">
         <v>1605542399</v>
       </c>
     </row>
@@ -4213,31 +4198,33 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>84</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="E85">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1">
         <v>1</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="1">
         <v>100</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H85" s="26" t="s">
+      <c r="H85" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="J85" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K85" s="34">
-        <v>-1</v>
-      </c>
-      <c r="L85" s="34">
+      <c r="I85" s="1"/>
+      <c r="J85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L85" s="29">
         <v>-1</v>
       </c>
     </row>
@@ -4245,28 +4232,31 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>85</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E86">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1">
         <v>1</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>100</v>
       </c>
-      <c r="H86" t="s">
+      <c r="G86" s="1"/>
+      <c r="H86" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J86" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K86" s="34">
+      <c r="I86" s="1"/>
+      <c r="J86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="29">
         <v>1606176000</v>
       </c>
-      <c r="L86" s="34">
+      <c r="L86" s="29">
         <v>1606751999</v>
       </c>
     </row>
@@ -4274,28 +4264,31 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>86</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E87">
+      <c r="D87" s="1"/>
+      <c r="E87" s="1">
         <v>1</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>100</v>
       </c>
-      <c r="H87" t="s">
+      <c r="G87" s="1"/>
+      <c r="H87" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J87" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="K87" s="40">
+      <c r="I87" s="1"/>
+      <c r="J87" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" s="34">
         <v>1609200000</v>
       </c>
-      <c r="L87" s="40">
+      <c r="L87" s="34">
         <v>1609775999</v>
       </c>
     </row>
@@ -4306,28 +4299,25 @@
       <c r="B88" s="1">
         <v>87</v>
       </c>
-      <c r="C88" s="32" t="s">
+      <c r="C88" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31">
+      <c r="E88" s="1">
         <v>1</v>
       </c>
-      <c r="F88" s="31">
+      <c r="F88" s="1">
         <v>100</v>
       </c>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31" t="s">
+      <c r="H88" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" s="41">
+      <c r="J88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="34">
         <v>1609804800</v>
       </c>
-      <c r="L88" s="41">
+      <c r="L88" s="34">
         <v>1610380799</v>
       </c>
     </row>
@@ -4335,31 +4325,33 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>88</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="E89">
+      <c r="D89" s="1"/>
+      <c r="E89" s="1">
         <v>1</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
         <v>110</v>
       </c>
-      <c r="G89" s="26" t="s">
+      <c r="G89" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="H89" s="24" t="s">
+      <c r="H89" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="J89" s="20" t="s">
+      <c r="I89" s="1"/>
+      <c r="J89" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K89" s="29">
         <v>1607990400</v>
       </c>
-      <c r="L89" s="44">
+      <c r="L89" s="39">
         <v>1608566399</v>
       </c>
     </row>
@@ -4367,33 +4359,59 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>89</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C90" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31">
+      <c r="D90" s="41"/>
+      <c r="E90" s="41">
         <v>1</v>
       </c>
-      <c r="F90" s="31">
+      <c r="F90" s="41">
         <v>100</v>
       </c>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31" t="s">
+      <c r="G90" s="41"/>
+      <c r="H90" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K90" s="45">
-        <v>1610380800</v>
-      </c>
-      <c r="L90" s="45">
+      <c r="I90" s="41"/>
+      <c r="J90" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" s="42">
+        <v>1611014400</v>
+      </c>
+      <c r="L90" s="42">
         <v>1611590399</v>
       </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -4403,12 +4421,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4425,7 +4437,37 @@
 </comments>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -4433,62 +4475,38 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_1.19/banner_style_ui.xlsx
+++ b/config_1.19/banner_style_ui.xlsx
@@ -1617,9 +1617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3891,7 +3891,7 @@
         <v>156</v>
       </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="1">
         <v>100</v>
@@ -4016,7 +4016,7 @@
         <v>168</v>
       </c>
       <c r="E79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="1">
         <v>100</v>
@@ -4048,7 +4048,7 @@
         <v>170</v>
       </c>
       <c r="E80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1">
         <v>100</v>
@@ -4080,7 +4080,7 @@
         <v>172</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="1">
         <v>100</v>
@@ -4112,7 +4112,7 @@
         <v>174</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="1">
         <v>100</v>
@@ -4144,7 +4144,7 @@
         <v>178</v>
       </c>
       <c r="E83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="1">
         <v>100</v>
@@ -4173,7 +4173,7 @@
         <v>179</v>
       </c>
       <c r="E84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="1">
         <v>100</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1">
         <v>100</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="1">
         <v>100</v>
@@ -4303,7 +4303,7 @@
         <v>192</v>
       </c>
       <c r="E88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="1">
         <v>100</v>
@@ -4421,6 +4421,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4437,13 +4443,31 @@
 </comments>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="5" master=""/>
   <rangeList sheetStid="6" master=""/>
@@ -4451,62 +4475,38 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>